--- a/out/dimension_2/f42/stat.xlsx
+++ b/out/dimension_2/f42/stat.xlsx
@@ -376,7 +376,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Statistic"/>
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:DF5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,60 +413,303 @@
         <v/>
       </c>
       <c r="K1" t="str">
+        <v>Прогін 1</v>
+      </c>
+      <c r="L1" t="str">
+        <v/>
+      </c>
+      <c r="M1" t="str">
+        <v/>
+      </c>
+      <c r="N1" t="str">
+        <v/>
+      </c>
+      <c r="O1" t="str">
+        <v/>
+      </c>
+      <c r="P1" t="str">
+        <v/>
+      </c>
+      <c r="Q1" t="str">
+        <v/>
+      </c>
+      <c r="R1" t="str">
+        <v/>
+      </c>
+      <c r="S1" t="str">
+        <v/>
+      </c>
+      <c r="T1" t="str">
+        <v>Прогін 2</v>
+      </c>
+      <c r="U1" t="str">
+        <v/>
+      </c>
+      <c r="V1" t="str">
+        <v/>
+      </c>
+      <c r="W1" t="str">
+        <v/>
+      </c>
+      <c r="X1" t="str">
+        <v/>
+      </c>
+      <c r="Y1" t="str">
+        <v/>
+      </c>
+      <c r="Z1" t="str">
+        <v/>
+      </c>
+      <c r="AA1" t="str">
+        <v/>
+      </c>
+      <c r="AB1" t="str">
+        <v/>
+      </c>
+      <c r="AC1" t="str">
+        <v>Прогін 3</v>
+      </c>
+      <c r="AD1" t="str">
+        <v/>
+      </c>
+      <c r="AE1" t="str">
+        <v/>
+      </c>
+      <c r="AF1" t="str">
+        <v/>
+      </c>
+      <c r="AG1" t="str">
+        <v/>
+      </c>
+      <c r="AH1" t="str">
+        <v/>
+      </c>
+      <c r="AI1" t="str">
+        <v/>
+      </c>
+      <c r="AJ1" t="str">
+        <v/>
+      </c>
+      <c r="AK1" t="str">
+        <v/>
+      </c>
+      <c r="AL1" t="str">
+        <v>Прогін 4</v>
+      </c>
+      <c r="AM1" t="str">
+        <v/>
+      </c>
+      <c r="AN1" t="str">
+        <v/>
+      </c>
+      <c r="AO1" t="str">
+        <v/>
+      </c>
+      <c r="AP1" t="str">
+        <v/>
+      </c>
+      <c r="AQ1" t="str">
+        <v/>
+      </c>
+      <c r="AR1" t="str">
+        <v/>
+      </c>
+      <c r="AS1" t="str">
+        <v/>
+      </c>
+      <c r="AT1" t="str">
+        <v/>
+      </c>
+      <c r="AU1" t="str">
+        <v>Прогін 5</v>
+      </c>
+      <c r="AV1" t="str">
+        <v/>
+      </c>
+      <c r="AW1" t="str">
+        <v/>
+      </c>
+      <c r="AX1" t="str">
+        <v/>
+      </c>
+      <c r="AY1" t="str">
+        <v/>
+      </c>
+      <c r="AZ1" t="str">
+        <v/>
+      </c>
+      <c r="BA1" t="str">
+        <v/>
+      </c>
+      <c r="BB1" t="str">
+        <v/>
+      </c>
+      <c r="BC1" t="str">
+        <v/>
+      </c>
+      <c r="BD1" t="str">
+        <v>Прогін 6</v>
+      </c>
+      <c r="BE1" t="str">
+        <v/>
+      </c>
+      <c r="BF1" t="str">
+        <v/>
+      </c>
+      <c r="BG1" t="str">
+        <v/>
+      </c>
+      <c r="BH1" t="str">
+        <v/>
+      </c>
+      <c r="BI1" t="str">
+        <v/>
+      </c>
+      <c r="BJ1" t="str">
+        <v/>
+      </c>
+      <c r="BK1" t="str">
+        <v/>
+      </c>
+      <c r="BL1" t="str">
+        <v/>
+      </c>
+      <c r="BM1" t="str">
+        <v>Прогін 7</v>
+      </c>
+      <c r="BN1" t="str">
+        <v/>
+      </c>
+      <c r="BO1" t="str">
+        <v/>
+      </c>
+      <c r="BP1" t="str">
+        <v/>
+      </c>
+      <c r="BQ1" t="str">
+        <v/>
+      </c>
+      <c r="BR1" t="str">
+        <v/>
+      </c>
+      <c r="BS1" t="str">
+        <v/>
+      </c>
+      <c r="BT1" t="str">
+        <v/>
+      </c>
+      <c r="BU1" t="str">
+        <v/>
+      </c>
+      <c r="BV1" t="str">
+        <v>Прогін 8</v>
+      </c>
+      <c r="BW1" t="str">
+        <v/>
+      </c>
+      <c r="BX1" t="str">
+        <v/>
+      </c>
+      <c r="BY1" t="str">
+        <v/>
+      </c>
+      <c r="BZ1" t="str">
+        <v/>
+      </c>
+      <c r="CA1" t="str">
+        <v/>
+      </c>
+      <c r="CB1" t="str">
+        <v/>
+      </c>
+      <c r="CC1" t="str">
+        <v/>
+      </c>
+      <c r="CD1" t="str">
+        <v/>
+      </c>
+      <c r="CE1" t="str">
+        <v>Прогін 9</v>
+      </c>
+      <c r="CF1" t="str">
+        <v/>
+      </c>
+      <c r="CG1" t="str">
+        <v/>
+      </c>
+      <c r="CH1" t="str">
+        <v/>
+      </c>
+      <c r="CI1" t="str">
+        <v/>
+      </c>
+      <c r="CJ1" t="str">
+        <v/>
+      </c>
+      <c r="CK1" t="str">
+        <v/>
+      </c>
+      <c r="CL1" t="str">
+        <v/>
+      </c>
+      <c r="CM1" t="str">
+        <v/>
+      </c>
+      <c r="CN1" t="str">
         <v>Середнє по всіх прогонах</v>
       </c>
-      <c r="L1" t="str">
-        <v/>
-      </c>
-      <c r="M1" t="str">
-        <v/>
-      </c>
-      <c r="N1" t="str">
-        <v/>
-      </c>
-      <c r="O1" t="str">
-        <v/>
-      </c>
-      <c r="P1" t="str">
-        <v/>
-      </c>
-      <c r="Q1" t="str">
-        <v/>
-      </c>
-      <c r="R1" t="str">
-        <v/>
-      </c>
-      <c r="S1" t="str">
-        <v/>
-      </c>
-      <c r="T1" t="str">
+      <c r="CO1" t="str">
+        <v/>
+      </c>
+      <c r="CP1" t="str">
+        <v/>
+      </c>
+      <c r="CQ1" t="str">
+        <v/>
+      </c>
+      <c r="CR1" t="str">
+        <v/>
+      </c>
+      <c r="CS1" t="str">
+        <v/>
+      </c>
+      <c r="CT1" t="str">
+        <v/>
+      </c>
+      <c r="CU1" t="str">
+        <v/>
+      </c>
+      <c r="CV1" t="str">
+        <v/>
+      </c>
+      <c r="CW1" t="str">
         <v>Найкраще по всіх прогонах</v>
       </c>
-      <c r="U1" t="str">
-        <v/>
-      </c>
-      <c r="V1" t="str">
-        <v/>
-      </c>
-      <c r="W1" t="str">
-        <v/>
-      </c>
-      <c r="X1" t="str">
-        <v/>
-      </c>
-      <c r="Y1" t="str">
-        <v/>
-      </c>
-      <c r="Z1" t="str">
-        <v/>
-      </c>
-      <c r="AA1" t="str">
-        <v/>
-      </c>
-      <c r="AB1" t="str">
-        <v/>
-      </c>
-      <c r="AC1" t="str">
+      <c r="CX1" t="str">
+        <v/>
+      </c>
+      <c r="CY1" t="str">
+        <v/>
+      </c>
+      <c r="CZ1" t="str">
+        <v/>
+      </c>
+      <c r="DA1" t="str">
+        <v/>
+      </c>
+      <c r="DB1" t="str">
+        <v/>
+      </c>
+      <c r="DC1" t="str">
+        <v/>
+      </c>
+      <c r="DD1" t="str">
+        <v/>
+      </c>
+      <c r="DE1" t="str">
+        <v/>
+      </c>
+      <c r="DF1" t="str">
         <v>SucRuns, %</v>
       </c>
     </row>
@@ -555,6 +798,249 @@
       <c r="AB2" t="str">
         <v>FPR</v>
       </c>
+      <c r="AC2" t="str">
+        <v>NFE</v>
+      </c>
+      <c r="AD2" t="str">
+        <v>NSeeds</v>
+      </c>
+      <c r="AE2" t="str">
+        <v>NP</v>
+      </c>
+      <c r="AF2" t="str">
+        <v>GP</v>
+      </c>
+      <c r="AG2" t="str">
+        <v>LP</v>
+      </c>
+      <c r="AH2" t="str">
+        <v>PR</v>
+      </c>
+      <c r="AI2" t="str">
+        <v>GPR</v>
+      </c>
+      <c r="AJ2" t="str">
+        <v>LPR</v>
+      </c>
+      <c r="AK2" t="str">
+        <v>FPR</v>
+      </c>
+      <c r="AL2" t="str">
+        <v>NFE</v>
+      </c>
+      <c r="AM2" t="str">
+        <v>NSeeds</v>
+      </c>
+      <c r="AN2" t="str">
+        <v>NP</v>
+      </c>
+      <c r="AO2" t="str">
+        <v>GP</v>
+      </c>
+      <c r="AP2" t="str">
+        <v>LP</v>
+      </c>
+      <c r="AQ2" t="str">
+        <v>PR</v>
+      </c>
+      <c r="AR2" t="str">
+        <v>GPR</v>
+      </c>
+      <c r="AS2" t="str">
+        <v>LPR</v>
+      </c>
+      <c r="AT2" t="str">
+        <v>FPR</v>
+      </c>
+      <c r="AU2" t="str">
+        <v>NFE</v>
+      </c>
+      <c r="AV2" t="str">
+        <v>NSeeds</v>
+      </c>
+      <c r="AW2" t="str">
+        <v>NP</v>
+      </c>
+      <c r="AX2" t="str">
+        <v>GP</v>
+      </c>
+      <c r="AY2" t="str">
+        <v>LP</v>
+      </c>
+      <c r="AZ2" t="str">
+        <v>PR</v>
+      </c>
+      <c r="BA2" t="str">
+        <v>GPR</v>
+      </c>
+      <c r="BB2" t="str">
+        <v>LPR</v>
+      </c>
+      <c r="BC2" t="str">
+        <v>FPR</v>
+      </c>
+      <c r="BD2" t="str">
+        <v>NFE</v>
+      </c>
+      <c r="BE2" t="str">
+        <v>NSeeds</v>
+      </c>
+      <c r="BF2" t="str">
+        <v>NP</v>
+      </c>
+      <c r="BG2" t="str">
+        <v>GP</v>
+      </c>
+      <c r="BH2" t="str">
+        <v>LP</v>
+      </c>
+      <c r="BI2" t="str">
+        <v>PR</v>
+      </c>
+      <c r="BJ2" t="str">
+        <v>GPR</v>
+      </c>
+      <c r="BK2" t="str">
+        <v>LPR</v>
+      </c>
+      <c r="BL2" t="str">
+        <v>FPR</v>
+      </c>
+      <c r="BM2" t="str">
+        <v>NFE</v>
+      </c>
+      <c r="BN2" t="str">
+        <v>NSeeds</v>
+      </c>
+      <c r="BO2" t="str">
+        <v>NP</v>
+      </c>
+      <c r="BP2" t="str">
+        <v>GP</v>
+      </c>
+      <c r="BQ2" t="str">
+        <v>LP</v>
+      </c>
+      <c r="BR2" t="str">
+        <v>PR</v>
+      </c>
+      <c r="BS2" t="str">
+        <v>GPR</v>
+      </c>
+      <c r="BT2" t="str">
+        <v>LPR</v>
+      </c>
+      <c r="BU2" t="str">
+        <v>FPR</v>
+      </c>
+      <c r="BV2" t="str">
+        <v>NFE</v>
+      </c>
+      <c r="BW2" t="str">
+        <v>NSeeds</v>
+      </c>
+      <c r="BX2" t="str">
+        <v>NP</v>
+      </c>
+      <c r="BY2" t="str">
+        <v>GP</v>
+      </c>
+      <c r="BZ2" t="str">
+        <v>LP</v>
+      </c>
+      <c r="CA2" t="str">
+        <v>PR</v>
+      </c>
+      <c r="CB2" t="str">
+        <v>GPR</v>
+      </c>
+      <c r="CC2" t="str">
+        <v>LPR</v>
+      </c>
+      <c r="CD2" t="str">
+        <v>FPR</v>
+      </c>
+      <c r="CE2" t="str">
+        <v>NFE</v>
+      </c>
+      <c r="CF2" t="str">
+        <v>NSeeds</v>
+      </c>
+      <c r="CG2" t="str">
+        <v>NP</v>
+      </c>
+      <c r="CH2" t="str">
+        <v>GP</v>
+      </c>
+      <c r="CI2" t="str">
+        <v>LP</v>
+      </c>
+      <c r="CJ2" t="str">
+        <v>PR</v>
+      </c>
+      <c r="CK2" t="str">
+        <v>GPR</v>
+      </c>
+      <c r="CL2" t="str">
+        <v>LPR</v>
+      </c>
+      <c r="CM2" t="str">
+        <v>FPR</v>
+      </c>
+      <c r="CN2" t="str">
+        <v>NFE</v>
+      </c>
+      <c r="CO2" t="str">
+        <v>NSeeds</v>
+      </c>
+      <c r="CP2" t="str">
+        <v>NP</v>
+      </c>
+      <c r="CQ2" t="str">
+        <v>GP</v>
+      </c>
+      <c r="CR2" t="str">
+        <v>LP</v>
+      </c>
+      <c r="CS2" t="str">
+        <v>PR</v>
+      </c>
+      <c r="CT2" t="str">
+        <v>GPR</v>
+      </c>
+      <c r="CU2" t="str">
+        <v>LPR</v>
+      </c>
+      <c r="CV2" t="str">
+        <v>FPR</v>
+      </c>
+      <c r="CW2" t="str">
+        <v>NFE</v>
+      </c>
+      <c r="CX2" t="str">
+        <v>NSeeds</v>
+      </c>
+      <c r="CY2" t="str">
+        <v>NP</v>
+      </c>
+      <c r="CZ2" t="str">
+        <v>GP</v>
+      </c>
+      <c r="DA2" t="str">
+        <v>LP</v>
+      </c>
+      <c r="DB2" t="str">
+        <v>PR</v>
+      </c>
+      <c r="DC2" t="str">
+        <v>GPR</v>
+      </c>
+      <c r="DD2" t="str">
+        <v>LPR</v>
+      </c>
+      <c r="DE2" t="str">
+        <v>FPR</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -588,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>188000</v>
+        <v>184200</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -615,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>188000</v>
+        <v>216100</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -642,14 +1128,822 @@
         <v>0</v>
       </c>
       <c r="AC3">
+        <v>199400</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>173700</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>206100</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>181700</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>215100</v>
+      </c>
+      <c r="BN3">
+        <v>1</v>
+      </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>1</v>
+      </c>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>186600</v>
+      </c>
+      <c r="BW3">
+        <v>1</v>
+      </c>
+      <c r="BX3">
+        <v>1</v>
+      </c>
+      <c r="BY3">
+        <v>1</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>1</v>
+      </c>
+      <c r="CB3">
+        <v>1</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>206500</v>
+      </c>
+      <c r="CF3">
+        <v>1</v>
+      </c>
+      <c r="CG3">
+        <v>1</v>
+      </c>
+      <c r="CH3">
+        <v>1</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>1</v>
+      </c>
+      <c r="CK3">
+        <v>1</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>195740</v>
+      </c>
+      <c r="CO3">
+        <v>1</v>
+      </c>
+      <c r="CP3">
+        <v>1</v>
+      </c>
+      <c r="CQ3">
+        <v>1</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>1</v>
+      </c>
+      <c r="CT3">
+        <v>1</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>173700</v>
+      </c>
+      <c r="CX3">
+        <v>1</v>
+      </c>
+      <c r="CY3">
+        <v>1</v>
+      </c>
+      <c r="CZ3">
+        <v>1</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>1</v>
+      </c>
+      <c r="DC3">
+        <v>1</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>59200</v>
+      </c>
+      <c r="C4">
+        <v>128</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.0078125</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.9921875</v>
+      </c>
+      <c r="K4">
+        <v>67300</v>
+      </c>
+      <c r="L4">
+        <v>138</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.007246376811594203</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.9927536231884058</v>
+      </c>
+      <c r="T4">
+        <v>63500</v>
+      </c>
+      <c r="U4">
+        <v>133</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0.007518796992481203</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.9924812030075187</v>
+      </c>
+      <c r="AC4">
+        <v>59700</v>
+      </c>
+      <c r="AD4">
+        <v>139</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0.007194244604316547</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0.9928057553956835</v>
+      </c>
+      <c r="AL4">
+        <v>51500</v>
+      </c>
+      <c r="AM4">
+        <v>125</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0.008</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0.992</v>
+      </c>
+      <c r="AU4">
+        <v>195000</v>
+      </c>
+      <c r="AV4">
+        <v>164</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0.006097560975609756</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0.9939024390243902</v>
+      </c>
+      <c r="BD4">
+        <v>60240</v>
+      </c>
+      <c r="BE4">
+        <v>132.6</v>
+      </c>
+      <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0.00755438368167839</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0.9924456163183215</v>
+      </c>
+      <c r="BM4">
+        <v>51500</v>
+      </c>
+      <c r="BN4">
+        <v>139</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0.008</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0.992</v>
+      </c>
+      <c r="BV4">
+        <v>83.33333333333334</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>53000</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.25</v>
+      </c>
+      <c r="J5">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K5">
+        <v>44000</v>
+      </c>
+      <c r="L5">
+        <v>29</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0.25</v>
+      </c>
+      <c r="S5">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="T5">
+        <v>52300</v>
+      </c>
+      <c r="U5">
+        <v>41</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0.024390243902439025</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0.975609756097561</v>
+      </c>
+      <c r="AC5">
+        <v>63600</v>
+      </c>
+      <c r="AD5">
+        <v>19</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="AL5">
+        <v>57700</v>
+      </c>
+      <c r="AM5">
+        <v>24</v>
+      </c>
+      <c r="AN5">
+        <v>2</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>0.25</v>
+      </c>
+      <c r="AT5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="AU5">
+        <v>58100</v>
+      </c>
+      <c r="AV5">
+        <v>22</v>
+      </c>
+      <c r="AW5">
+        <v>2</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>0.25</v>
+      </c>
+      <c r="BC5">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="BD5">
+        <v>55800</v>
+      </c>
+      <c r="BE5">
+        <v>35</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0.9714285714285714</v>
+      </c>
+      <c r="BM5">
+        <v>50400</v>
+      </c>
+      <c r="BN5">
+        <v>42</v>
+      </c>
+      <c r="BO5">
+        <v>2</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>0.047619047619047616</v>
+      </c>
+      <c r="BS5">
+        <v>1</v>
+      </c>
+      <c r="BT5">
+        <v>0.25</v>
+      </c>
+      <c r="BU5">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="BV5">
+        <v>43900</v>
+      </c>
+      <c r="BW5">
+        <v>38</v>
+      </c>
+      <c r="BX5">
+        <v>2</v>
+      </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+      <c r="BZ5">
+        <v>1</v>
+      </c>
+      <c r="CA5">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
+      </c>
+      <c r="CC5">
+        <v>0.25</v>
+      </c>
+      <c r="CD5">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="CE5">
+        <v>48800</v>
+      </c>
+      <c r="CF5">
+        <v>36</v>
+      </c>
+      <c r="CG5">
+        <v>1</v>
+      </c>
+      <c r="CH5">
+        <v>1</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="CK5">
+        <v>1</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="CN5">
+        <v>52760</v>
+      </c>
+      <c r="CO5">
+        <v>30.5</v>
+      </c>
+      <c r="CP5">
+        <v>1.6</v>
+      </c>
+      <c r="CQ5">
+        <v>1</v>
+      </c>
+      <c r="CR5">
+        <v>0.6</v>
+      </c>
+      <c r="CS5">
+        <v>0.058209275514397016</v>
+      </c>
+      <c r="CT5">
+        <v>1</v>
+      </c>
+      <c r="CU5">
+        <v>0.15</v>
+      </c>
+      <c r="CV5">
+        <v>0.9417907244856029</v>
+      </c>
+      <c r="CW5">
+        <v>43900</v>
+      </c>
+      <c r="CX5">
+        <v>42</v>
+      </c>
+      <c r="CY5">
+        <v>2</v>
+      </c>
+      <c r="CZ5">
+        <v>1</v>
+      </c>
+      <c r="DA5">
+        <v>1</v>
+      </c>
+      <c r="DB5">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="DC5">
+        <v>1</v>
+      </c>
+      <c r="DD5">
+        <v>0.25</v>
+      </c>
+      <c r="DE5">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="DF5">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="12">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="AU1:BC1"/>
+    <mergeCell ref="BD1:BL1"/>
+    <mergeCell ref="BM1:BU1"/>
+    <mergeCell ref="BV1:CD1"/>
+    <mergeCell ref="CE1:CM1"/>
+    <mergeCell ref="CN1:CV1"/>
+    <mergeCell ref="CW1:DE1"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/out/dimension_2/f42/stat.xlsx
+++ b/out/dimension_2/f42/stat.xlsx
@@ -376,7 +376,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Statistic"/>
-  <dimension ref="A1:DF5"/>
+  <dimension ref="A1:DF7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1928,6 +1928,184 @@
       </c>
       <c r="DF5">
         <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>73600</v>
+      </c>
+      <c r="C6">
+        <v>222</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0.013513513513513514</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>0.9864864864864865</v>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <v/>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <v/>
+      </c>
+      <c r="Y6" t="str">
+        <v/>
+      </c>
+      <c r="Z6" t="str">
+        <v/>
+      </c>
+      <c r="AA6" t="str">
+        <v/>
+      </c>
+      <c r="AB6" t="str">
+        <v/>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>73600</v>
+      </c>
+      <c r="C7">
+        <v>222</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0.013513513513513514</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <v>0.9864864864864865</v>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <v/>
+      </c>
+      <c r="Y7" t="str">
+        <v/>
+      </c>
+      <c r="Z7" t="str">
+        <v/>
+      </c>
+      <c r="AA7" t="str">
+        <v/>
+      </c>
+      <c r="AB7" t="str">
+        <v/>
+      </c>
+      <c r="AC7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
